--- a/real_data/vgg19_MNIST.xlsx
+++ b/real_data/vgg19_MNIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2002DBA-34E7-C843-A42F-81F3376C0F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC294E-D243-AE49-8E91-A11BD48DBCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="1" r:id="rId1"/>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CD9CE4-C2DE-5041-8469-82CCEAE8B1CB}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>2623.818181818182</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>13089.7</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>636.93181818181802</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>4725.9666666666672</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>0</v>
+        <v>278.27272727272725</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>237.54545454545453</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>35.272727272727273</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11A21C0-0191-394D-8CE4-CCE9C7FACE9B}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
